--- a/docs/PanditasProducts.xlsx
+++ b/docs/PanditasProducts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prds" sheetId="1" state="visible" r:id="rId2"/>
@@ -325,48 +325,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="1" sqref="A1:A35 B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="56.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -377,18 +377,18 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>pijama-enterisa-ref.-0001</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">IF(ISBLANK(E3),"NULL",E3)</f>
+      <c r="G3" s="0" t="n">
+        <f aca="false">IF(ISBLANK(F3),"NULL",F3)</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -400,14 +400,17 @@
         <v>pijama-enterisa-ref.-0002</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="F4" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E4),"NULL",E4)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F4),"NULL",F4)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -419,14 +422,17 @@
         <v>pijama-enterisa-ref.-0003</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="F5" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E5),"NULL",E5)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F5),"NULL",F5)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -438,14 +444,17 @@
         <v>pijama-enterisa-ref.-0004</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="F6" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E6),"NULL",E6)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F6),"NULL",F6)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
@@ -457,14 +466,17 @@
         <v>pijama-enterisa-ref.-0005</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>27900</v>
       </c>
-      <c r="F7" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E7),"NULL",E7)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F7),"NULL",F7)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
@@ -475,15 +487,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B8)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>pijama-dos-piezas-ref.-0001</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="F8" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E8),"NULL",E8)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F8),"NULL",F8)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
@@ -495,17 +507,20 @@
         <v>pijama-dos-piezas-ref.-0002</v>
       </c>
       <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">IF(ISBLANK(E9),"NULL",E9)</f>
+      <c r="G9" s="0" t="n">
+        <f aca="false">IF(ISBLANK(F9),"NULL",F9)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
@@ -517,14 +532,17 @@
         <v>pijama-dos-piezas-ref.-0003</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="F10" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E10),"NULL",E10)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F10),"NULL",F10)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
@@ -536,17 +554,20 @@
         <v>pijama-dos-piezas-ref.-0004</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>18500</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">IF(ISBLANK(E11),"NULL",E11)</f>
+      <c r="G11" s="0" t="n">
+        <f aca="false">IF(ISBLANK(F11),"NULL",F11)</f>
         <v>18500</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
@@ -558,17 +579,20 @@
         <v>pijama-dos-piezas-ref.-0005</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>23900</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>18500</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">IF(ISBLANK(E12),"NULL",E12)</f>
+      <c r="G12" s="0" t="n">
+        <f aca="false">IF(ISBLANK(F12),"NULL",F12)</f>
         <v>18500</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -579,15 +603,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B13)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>ruana-de-animales-ref.-0001</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>47900</v>
       </c>
-      <c r="F13" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E13),"NULL",E13)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F13),"NULL",F13)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
@@ -599,14 +623,17 @@
         <v>ruana-de-animales-ref.-0002</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>47900</v>
       </c>
-      <c r="F14" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E14),"NULL",E14)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F14),"NULL",F14)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -618,17 +645,20 @@
         <v>ruana-de-animales-ref.-0003</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>47900</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>42900</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">IF(ISBLANK(E15),"NULL",E15)</f>
+      <c r="G15" s="0" t="n">
+        <f aca="false">IF(ISBLANK(F15),"NULL",F15)</f>
         <v>42900</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
@@ -640,14 +670,17 @@
         <v>ruana-de-animales-ref.-0004</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>47900</v>
       </c>
-      <c r="F16" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E16),"NULL",E16)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F16),"NULL",F16)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
@@ -659,14 +692,17 @@
         <v>ruana-de-animales-ref.-0005</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>47900</v>
       </c>
-      <c r="F17" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E17),"NULL",E17)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F17),"NULL",F17)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
@@ -677,15 +713,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B18)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>ruana-de-orejitas-ref.0001</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="F18" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E18),"NULL",E18)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F18),"NULL",F18)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
@@ -697,14 +733,17 @@
         <v>ruana-de-orejitas-ref.0002</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="F19" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E19),"NULL",E19)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F19),"NULL",F19)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
@@ -716,14 +755,17 @@
         <v>ruana-de-orejitas-ref.0003</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="F20" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E20),"NULL",E20)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F20),"NULL",F20)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
@@ -735,14 +777,17 @@
         <v>ruana-de-orejitas-ref.0004</v>
       </c>
       <c r="D21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="F21" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E21),"NULL",E21)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F21),"NULL",F21)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
@@ -754,14 +799,17 @@
         <v>ruana-de-orejitas-ref.0005</v>
       </c>
       <c r="D22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>29900</v>
       </c>
-      <c r="F22" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E22),"NULL",E22)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F22),"NULL",F22)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
@@ -772,15 +820,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B23)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>combo-materno-niño</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>69900</v>
       </c>
-      <c r="F23" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E23),"NULL",E23)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F23),"NULL",F23)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
@@ -791,15 +839,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B24)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>combo-materno-niña</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>69900</v>
       </c>
-      <c r="F24" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E24),"NULL",E24)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F24),"NULL",F24)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
@@ -810,15 +858,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B25)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>gorro-niño</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>7900</v>
       </c>
-      <c r="F25" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E25),"NULL",E25)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F25),"NULL",F25)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
@@ -829,15 +877,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B26)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>gorro-niña</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>7900</v>
       </c>
-      <c r="F26" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E26),"NULL",E26)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F26),"NULL",F26)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
@@ -848,15 +896,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B27)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>pijama-para-madre-he-hija-ref.-0001</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F27" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E27),"NULL",E27)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F27),"NULL",F27)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
@@ -868,14 +916,17 @@
         <v>pijama-para-madre-he-hija-ref.-0002</v>
       </c>
       <c r="D28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F28" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E28),"NULL",E28)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F28),"NULL",F28)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
@@ -887,14 +938,17 @@
         <v>pijama-para-madre-he-hija-ref.-0003</v>
       </c>
       <c r="D29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F29" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E29),"NULL",E29)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F29),"NULL",F29)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
@@ -906,14 +960,17 @@
         <v>pijama-para-madre-he-hija-ref.-0004</v>
       </c>
       <c r="D30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F30" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E30),"NULL",E30)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F30),"NULL",F30)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
@@ -925,14 +982,17 @@
         <v>pijama-para-madre-he-hija-ref.-0005</v>
       </c>
       <c r="D31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F31" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E31),"NULL",E31)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F31),"NULL",F31)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
@@ -943,15 +1003,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B32)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>chaqueta-ref.0001</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>44900</v>
       </c>
-      <c r="F32" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E32),"NULL",E32)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F32),"NULL",F32)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
@@ -963,14 +1023,17 @@
         <v>chaqueta-ref.0002</v>
       </c>
       <c r="D33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>44900</v>
       </c>
-      <c r="F33" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E33),"NULL",E33)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F33),"NULL",F33)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
@@ -982,14 +1045,17 @@
         <v>chaqueta-ref.0003</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>44900</v>
       </c>
-      <c r="F34" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E34),"NULL",E34)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F34),"NULL",F34)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
@@ -1000,15 +1066,15 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B35)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>pijama-de-animalitos-ref.-0001</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F35" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E35),"NULL",E35)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F35),"NULL",F35)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
@@ -1020,14 +1086,17 @@
         <v>pijama-de-animalitos-ref.-0002</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F36" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E36),"NULL",E36)</f>
-        <v>NULL</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F36),"NULL",F36)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
@@ -1039,10 +1108,13 @@
         <v>pijama-de-animalitos-ref.-0003</v>
       </c>
       <c r="D37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>49900</v>
       </c>
-      <c r="F37" s="0" t="str">
-        <f aca="false">IF(ISBLANK(E37),"NULL",E37)</f>
+      <c r="G37" s="0" t="str">
+        <f aca="false">IF(ISBLANK(F37),"NULL",F37)</f>
         <v>NULL</v>
       </c>
     </row>
@@ -1065,7 +1137,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="A1:A35 I3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1272,7 +1344,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="A1:A35 B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1303,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="str">
-        <f aca="false">VLOOKUP(A2,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A2,Prds!$A$3:$H$60,2)</f>
         <v>Pijama Enterisa Ref. 0001</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -1319,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="str">
-        <f aca="false">VLOOKUP(A3,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A3,Prds!$A$3:$H$60,2)</f>
         <v>Pijama Enterisa Ref. 0002</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1335,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="str">
-        <f aca="false">VLOOKUP(A4,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A4,Prds!$A$3:$H$60,2)</f>
         <v>Pijama Enterisa Ref. 0003</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -1351,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="str">
-        <f aca="false">VLOOKUP(A5,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A5,Prds!$A$3:$H$60,2)</f>
         <v>Pijama Enterisa Ref. 0004</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1367,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="str">
-        <f aca="false">VLOOKUP(A6,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A6,Prds!$A$3:$H$60,2)</f>
         <v>Pijama Enterisa Ref. 0005</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1383,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="str">
-        <f aca="false">VLOOKUP(A7,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A7,Prds!$A$3:$H$60,2)</f>
         <v>Pijama dos piezas Ref. 0001</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1399,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="str">
-        <f aca="false">VLOOKUP(A8,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A8,Prds!$A$3:$H$60,2)</f>
         <v>Pijama dos piezas Ref. 0002</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1415,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="str">
-        <f aca="false">VLOOKUP(A9,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A9,Prds!$A$3:$H$60,2)</f>
         <v>Pijama dos piezas Ref. 0003</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1431,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="str">
-        <f aca="false">VLOOKUP(A10,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A10,Prds!$A$3:$H$60,2)</f>
         <v>Pijama dos piezas Ref. 0004</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1447,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="str">
-        <f aca="false">VLOOKUP(A11,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A11,Prds!$A$3:$H$60,2)</f>
         <v>Pijama dos piezas Ref. 0005</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1463,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="str">
-        <f aca="false">VLOOKUP(A12,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A12,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de animales Ref. 0001</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1479,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="str">
-        <f aca="false">VLOOKUP(A13,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A13,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de animales Ref. 0002</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1495,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="str">
-        <f aca="false">VLOOKUP(A14,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A14,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de animales Ref. 0003</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1511,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="str">
-        <f aca="false">VLOOKUP(A15,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A15,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de animales Ref. 0004</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1527,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="str">
-        <f aca="false">VLOOKUP(A16,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A16,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de animales Ref. 0005</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1543,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="str">
-        <f aca="false">VLOOKUP(A17,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A17,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de Orejitas Ref.0001</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1559,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="str">
-        <f aca="false">VLOOKUP(A18,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A18,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de Orejitas Ref.0002</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1575,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="str">
-        <f aca="false">VLOOKUP(A19,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A19,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de Orejitas Ref.0003</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1591,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="str">
-        <f aca="false">VLOOKUP(A20,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A20,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de Orejitas Ref.0004</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1607,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="str">
-        <f aca="false">VLOOKUP(A21,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A21,Prds!$A$3:$H$60,2)</f>
         <v>Ruana de Orejitas Ref.0005</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1623,7 +1695,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="str">
-        <f aca="false">VLOOKUP(A22,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A22,Prds!$A$3:$H$60,2)</f>
         <v>Combo materno niño</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1639,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="str">
-        <f aca="false">VLOOKUP(A23,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A23,Prds!$A$3:$H$60,2)</f>
         <v>Combo materno niña</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1655,7 +1727,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="str">
-        <f aca="false">VLOOKUP(A24,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A24,Prds!$A$3:$H$60,2)</f>
         <v>Gorro niño</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1671,7 +1743,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="str">
-        <f aca="false">VLOOKUP(A25,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A25,Prds!$A$3:$H$60,2)</f>
         <v>Gorro niña</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1687,7 +1759,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="str">
-        <f aca="false">VLOOKUP(A26,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A26,Prds!$A$3:$H$60,2)</f>
         <v>Pijama para Madre he hija Ref. 0001</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1703,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="str">
-        <f aca="false">VLOOKUP(A27,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A27,Prds!$A$3:$H$60,2)</f>
         <v>Pijama para Madre he hija Ref. 0002</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1719,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="str">
-        <f aca="false">VLOOKUP(A28,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A28,Prds!$A$3:$H$60,2)</f>
         <v>Pijama para Madre he hija Ref. 0003</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1735,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="str">
-        <f aca="false">VLOOKUP(A29,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A29,Prds!$A$3:$H$60,2)</f>
         <v>Pijama para Madre he hija Ref. 0004</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1751,7 +1823,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="str">
-        <f aca="false">VLOOKUP(A30,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A30,Prds!$A$3:$H$60,2)</f>
         <v>Pijama para Madre he hija Ref. 0005</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1767,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="str">
-        <f aca="false">VLOOKUP(A31,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A31,Prds!$A$3:$H$60,2)</f>
         <v>Chaqueta Ref.0001</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1783,7 +1855,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="str">
-        <f aca="false">VLOOKUP(A32,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A32,Prds!$A$3:$H$60,2)</f>
         <v>Chaqueta Ref.0002</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1799,7 +1871,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="str">
-        <f aca="false">VLOOKUP(A33,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A33,Prds!$A$3:$H$60,2)</f>
         <v>Chaqueta Ref.0003</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1815,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="str">
-        <f aca="false">VLOOKUP(A34,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A34,Prds!$A$3:$H$60,2)</f>
         <v>Pijama de Animalitos Ref. 0001</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1831,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="str">
-        <f aca="false">VLOOKUP(A35,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A35,Prds!$A$3:$H$60,2)</f>
         <v>Pijama de Animalitos Ref. 0002</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1847,7 +1919,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="str">
-        <f aca="false">VLOOKUP(A36,Prds!$A$3:$G$60,2)</f>
+        <f aca="false">VLOOKUP(A36,Prds!$A$3:$H$60,2)</f>
         <v>Pijama de Animalitos Ref. 0003</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1884,7 +1956,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A1:A35"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1917,7 +1989,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A1:A35"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,211 +1999,211 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A3&amp;",'name'=&gt;'"&amp;Prds!B3&amp;"','slug'=&gt;'"&amp;Prds!C3&amp;"','org_price'=&gt;"&amp;Prds!D3&amp;",'dct_price'=&gt;"&amp;Prds!F3&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A3&amp;",'name'=&gt;'"&amp;Prds!B3&amp;"','slug'=&gt;'"&amp;Prds!C3&amp;"','org_price'=&gt;"&amp;Prds!E3&amp;",'dct_price'=&gt;"&amp;Prds!G3&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0001','slug'=&gt;'pijama-enterisa-ref.-0001','org_price'=&gt;27900,'dct_price'=&gt;25000,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A4&amp;",'name'=&gt;'"&amp;Prds!B4&amp;"','slug'=&gt;'"&amp;Prds!C4&amp;"','org_price'=&gt;"&amp;Prds!D4&amp;",'dct_price'=&gt;"&amp;Prds!F4&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A4&amp;",'name'=&gt;'"&amp;Prds!B4&amp;"','slug'=&gt;'"&amp;Prds!C4&amp;"','org_price'=&gt;"&amp;Prds!E4&amp;",'dct_price'=&gt;"&amp;Prds!G4&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;2,'name'=&gt;'Pijama Enterisa Ref. 0002','slug'=&gt;'pijama-enterisa-ref.-0002','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A5&amp;",'name'=&gt;'"&amp;Prds!B5&amp;"','slug'=&gt;'"&amp;Prds!C5&amp;"','org_price'=&gt;"&amp;Prds!D5&amp;",'dct_price'=&gt;"&amp;Prds!F5&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A5&amp;",'name'=&gt;'"&amp;Prds!B5&amp;"','slug'=&gt;'"&amp;Prds!C5&amp;"','org_price'=&gt;"&amp;Prds!E5&amp;",'dct_price'=&gt;"&amp;Prds!G5&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;3,'name'=&gt;'Pijama Enterisa Ref. 0003','slug'=&gt;'pijama-enterisa-ref.-0003','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A6&amp;",'name'=&gt;'"&amp;Prds!B6&amp;"','slug'=&gt;'"&amp;Prds!C6&amp;"','org_price'=&gt;"&amp;Prds!D6&amp;",'dct_price'=&gt;"&amp;Prds!F6&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A6&amp;",'name'=&gt;'"&amp;Prds!B6&amp;"','slug'=&gt;'"&amp;Prds!C6&amp;"','org_price'=&gt;"&amp;Prds!E6&amp;",'dct_price'=&gt;"&amp;Prds!G6&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;4,'name'=&gt;'Pijama Enterisa Ref. 0004','slug'=&gt;'pijama-enterisa-ref.-0004','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A7&amp;",'name'=&gt;'"&amp;Prds!B7&amp;"','slug'=&gt;'"&amp;Prds!C7&amp;"','org_price'=&gt;"&amp;Prds!D7&amp;",'dct_price'=&gt;"&amp;Prds!F7&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A7&amp;",'name'=&gt;'"&amp;Prds!B7&amp;"','slug'=&gt;'"&amp;Prds!C7&amp;"','org_price'=&gt;"&amp;Prds!E7&amp;",'dct_price'=&gt;"&amp;Prds!G7&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;5,'name'=&gt;'Pijama Enterisa Ref. 0005','slug'=&gt;'pijama-enterisa-ref.-0005','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A8&amp;",'name'=&gt;'"&amp;Prds!B8&amp;"','slug'=&gt;'"&amp;Prds!C8&amp;"','org_price'=&gt;"&amp;Prds!D8&amp;",'dct_price'=&gt;"&amp;Prds!F8&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A8&amp;",'name'=&gt;'"&amp;Prds!B8&amp;"','slug'=&gt;'"&amp;Prds!C8&amp;"','org_price'=&gt;"&amp;Prds!E8&amp;",'dct_price'=&gt;"&amp;Prds!G8&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0001','slug'=&gt;'pijama-dos-piezas-ref.-0001','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A9&amp;",'name'=&gt;'"&amp;Prds!B9&amp;"','slug'=&gt;'"&amp;Prds!C9&amp;"','org_price'=&gt;"&amp;Prds!D9&amp;",'dct_price'=&gt;"&amp;Prds!F9&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A9&amp;",'name'=&gt;'"&amp;Prds!B9&amp;"','slug'=&gt;'"&amp;Prds!C9&amp;"','org_price'=&gt;"&amp;Prds!E9&amp;",'dct_price'=&gt;"&amp;Prds!G9&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;7,'name'=&gt;'Pijama dos piezas Ref. 0002','slug'=&gt;'pijama-dos-piezas-ref.-0002','org_price'=&gt;23900,'dct_price'=&gt;20000,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A10&amp;",'name'=&gt;'"&amp;Prds!B10&amp;"','slug'=&gt;'"&amp;Prds!C10&amp;"','org_price'=&gt;"&amp;Prds!D10&amp;",'dct_price'=&gt;"&amp;Prds!F10&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A10&amp;",'name'=&gt;'"&amp;Prds!B10&amp;"','slug'=&gt;'"&amp;Prds!C10&amp;"','org_price'=&gt;"&amp;Prds!E10&amp;",'dct_price'=&gt;"&amp;Prds!G10&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;8,'name'=&gt;'Pijama dos piezas Ref. 0003','slug'=&gt;'pijama-dos-piezas-ref.-0003','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A11&amp;",'name'=&gt;'"&amp;Prds!B11&amp;"','slug'=&gt;'"&amp;Prds!C11&amp;"','org_price'=&gt;"&amp;Prds!D11&amp;",'dct_price'=&gt;"&amp;Prds!F11&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A11&amp;",'name'=&gt;'"&amp;Prds!B11&amp;"','slug'=&gt;'"&amp;Prds!C11&amp;"','org_price'=&gt;"&amp;Prds!E11&amp;",'dct_price'=&gt;"&amp;Prds!G11&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;9,'name'=&gt;'Pijama dos piezas Ref. 0004','slug'=&gt;'pijama-dos-piezas-ref.-0004','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A12&amp;",'name'=&gt;'"&amp;Prds!B12&amp;"','slug'=&gt;'"&amp;Prds!C12&amp;"','org_price'=&gt;"&amp;Prds!D12&amp;",'dct_price'=&gt;"&amp;Prds!F12&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A12&amp;",'name'=&gt;'"&amp;Prds!B12&amp;"','slug'=&gt;'"&amp;Prds!C12&amp;"','org_price'=&gt;"&amp;Prds!E12&amp;",'dct_price'=&gt;"&amp;Prds!G12&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;10,'name'=&gt;'Pijama dos piezas Ref. 0005','slug'=&gt;'pijama-dos-piezas-ref.-0005','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A13&amp;",'name'=&gt;'"&amp;Prds!B13&amp;"','slug'=&gt;'"&amp;Prds!C13&amp;"','org_price'=&gt;"&amp;Prds!D13&amp;",'dct_price'=&gt;"&amp;Prds!F13&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A13&amp;",'name'=&gt;'"&amp;Prds!B13&amp;"','slug'=&gt;'"&amp;Prds!C13&amp;"','org_price'=&gt;"&amp;Prds!E13&amp;",'dct_price'=&gt;"&amp;Prds!G13&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0001','slug'=&gt;'ruana-de-animales-ref.-0001','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A14&amp;",'name'=&gt;'"&amp;Prds!B14&amp;"','slug'=&gt;'"&amp;Prds!C14&amp;"','org_price'=&gt;"&amp;Prds!D14&amp;",'dct_price'=&gt;"&amp;Prds!F14&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A14&amp;",'name'=&gt;'"&amp;Prds!B14&amp;"','slug'=&gt;'"&amp;Prds!C14&amp;"','org_price'=&gt;"&amp;Prds!E14&amp;",'dct_price'=&gt;"&amp;Prds!G14&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;12,'name'=&gt;'Ruana de animales Ref. 0002','slug'=&gt;'ruana-de-animales-ref.-0002','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A15&amp;",'name'=&gt;'"&amp;Prds!B15&amp;"','slug'=&gt;'"&amp;Prds!C15&amp;"','org_price'=&gt;"&amp;Prds!D15&amp;",'dct_price'=&gt;"&amp;Prds!F15&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A15&amp;",'name'=&gt;'"&amp;Prds!B15&amp;"','slug'=&gt;'"&amp;Prds!C15&amp;"','org_price'=&gt;"&amp;Prds!E15&amp;",'dct_price'=&gt;"&amp;Prds!G15&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;13,'name'=&gt;'Ruana de animales Ref. 0003','slug'=&gt;'ruana-de-animales-ref.-0003','org_price'=&gt;47900,'dct_price'=&gt;42900,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A16&amp;",'name'=&gt;'"&amp;Prds!B16&amp;"','slug'=&gt;'"&amp;Prds!C16&amp;"','org_price'=&gt;"&amp;Prds!D16&amp;",'dct_price'=&gt;"&amp;Prds!F16&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A16&amp;",'name'=&gt;'"&amp;Prds!B16&amp;"','slug'=&gt;'"&amp;Prds!C16&amp;"','org_price'=&gt;"&amp;Prds!E16&amp;",'dct_price'=&gt;"&amp;Prds!G16&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;14,'name'=&gt;'Ruana de animales Ref. 0004','slug'=&gt;'ruana-de-animales-ref.-0004','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A17&amp;",'name'=&gt;'"&amp;Prds!B17&amp;"','slug'=&gt;'"&amp;Prds!C17&amp;"','org_price'=&gt;"&amp;Prds!D17&amp;",'dct_price'=&gt;"&amp;Prds!F17&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A17&amp;",'name'=&gt;'"&amp;Prds!B17&amp;"','slug'=&gt;'"&amp;Prds!C17&amp;"','org_price'=&gt;"&amp;Prds!E17&amp;",'dct_price'=&gt;"&amp;Prds!G17&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;15,'name'=&gt;'Ruana de animales Ref. 0005','slug'=&gt;'ruana-de-animales-ref.-0005','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A18&amp;",'name'=&gt;'"&amp;Prds!B18&amp;"','slug'=&gt;'"&amp;Prds!C18&amp;"','org_price'=&gt;"&amp;Prds!D18&amp;",'dct_price'=&gt;"&amp;Prds!F18&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A18&amp;",'name'=&gt;'"&amp;Prds!B18&amp;"','slug'=&gt;'"&amp;Prds!C18&amp;"','org_price'=&gt;"&amp;Prds!E18&amp;",'dct_price'=&gt;"&amp;Prds!G18&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0001','slug'=&gt;'ruana-de-orejitas-ref.0001','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A19&amp;",'name'=&gt;'"&amp;Prds!B19&amp;"','slug'=&gt;'"&amp;Prds!C19&amp;"','org_price'=&gt;"&amp;Prds!D19&amp;",'dct_price'=&gt;"&amp;Prds!F19&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A19&amp;",'name'=&gt;'"&amp;Prds!B19&amp;"','slug'=&gt;'"&amp;Prds!C19&amp;"','org_price'=&gt;"&amp;Prds!E19&amp;",'dct_price'=&gt;"&amp;Prds!G19&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;17,'name'=&gt;'Ruana de Orejitas Ref.0002','slug'=&gt;'ruana-de-orejitas-ref.0002','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A20&amp;",'name'=&gt;'"&amp;Prds!B20&amp;"','slug'=&gt;'"&amp;Prds!C20&amp;"','org_price'=&gt;"&amp;Prds!D20&amp;",'dct_price'=&gt;"&amp;Prds!F20&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A20&amp;",'name'=&gt;'"&amp;Prds!B20&amp;"','slug'=&gt;'"&amp;Prds!C20&amp;"','org_price'=&gt;"&amp;Prds!E20&amp;",'dct_price'=&gt;"&amp;Prds!G20&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;18,'name'=&gt;'Ruana de Orejitas Ref.0003','slug'=&gt;'ruana-de-orejitas-ref.0003','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A21&amp;",'name'=&gt;'"&amp;Prds!B21&amp;"','slug'=&gt;'"&amp;Prds!C21&amp;"','org_price'=&gt;"&amp;Prds!D21&amp;",'dct_price'=&gt;"&amp;Prds!F21&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A21&amp;",'name'=&gt;'"&amp;Prds!B21&amp;"','slug'=&gt;'"&amp;Prds!C21&amp;"','org_price'=&gt;"&amp;Prds!E21&amp;",'dct_price'=&gt;"&amp;Prds!G21&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;19,'name'=&gt;'Ruana de Orejitas Ref.0004','slug'=&gt;'ruana-de-orejitas-ref.0004','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A22&amp;",'name'=&gt;'"&amp;Prds!B22&amp;"','slug'=&gt;'"&amp;Prds!C22&amp;"','org_price'=&gt;"&amp;Prds!D22&amp;",'dct_price'=&gt;"&amp;Prds!F22&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A22&amp;",'name'=&gt;'"&amp;Prds!B22&amp;"','slug'=&gt;'"&amp;Prds!C22&amp;"','org_price'=&gt;"&amp;Prds!E22&amp;",'dct_price'=&gt;"&amp;Prds!G22&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;20,'name'=&gt;'Ruana de Orejitas Ref.0005','slug'=&gt;'ruana-de-orejitas-ref.0005','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A23&amp;",'name'=&gt;'"&amp;Prds!B23&amp;"','slug'=&gt;'"&amp;Prds!C23&amp;"','org_price'=&gt;"&amp;Prds!D23&amp;",'dct_price'=&gt;"&amp;Prds!F23&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A23&amp;",'name'=&gt;'"&amp;Prds!B23&amp;"','slug'=&gt;'"&amp;Prds!C23&amp;"','org_price'=&gt;"&amp;Prds!E23&amp;",'dct_price'=&gt;"&amp;Prds!G23&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;21,'name'=&gt;'Combo materno niño','slug'=&gt;'combo-materno-niño','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A24&amp;",'name'=&gt;'"&amp;Prds!B24&amp;"','slug'=&gt;'"&amp;Prds!C24&amp;"','org_price'=&gt;"&amp;Prds!D24&amp;",'dct_price'=&gt;"&amp;Prds!F24&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A24&amp;",'name'=&gt;'"&amp;Prds!B24&amp;"','slug'=&gt;'"&amp;Prds!C24&amp;"','org_price'=&gt;"&amp;Prds!E24&amp;",'dct_price'=&gt;"&amp;Prds!G24&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;22,'name'=&gt;'Combo materno niña','slug'=&gt;'combo-materno-niña','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A25&amp;",'name'=&gt;'"&amp;Prds!B25&amp;"','slug'=&gt;'"&amp;Prds!C25&amp;"','org_price'=&gt;"&amp;Prds!D25&amp;",'dct_price'=&gt;"&amp;Prds!F25&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A25&amp;",'name'=&gt;'"&amp;Prds!B25&amp;"','slug'=&gt;'"&amp;Prds!C25&amp;"','org_price'=&gt;"&amp;Prds!E25&amp;",'dct_price'=&gt;"&amp;Prds!G25&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;23,'name'=&gt;'Gorro niño','slug'=&gt;'gorro-niño','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A26&amp;",'name'=&gt;'"&amp;Prds!B26&amp;"','slug'=&gt;'"&amp;Prds!C26&amp;"','org_price'=&gt;"&amp;Prds!D26&amp;",'dct_price'=&gt;"&amp;Prds!F26&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A26&amp;",'name'=&gt;'"&amp;Prds!B26&amp;"','slug'=&gt;'"&amp;Prds!C26&amp;"','org_price'=&gt;"&amp;Prds!E26&amp;",'dct_price'=&gt;"&amp;Prds!G26&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;24,'name'=&gt;'Gorro niña','slug'=&gt;'gorro-niña','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A27&amp;",'name'=&gt;'"&amp;Prds!B27&amp;"','slug'=&gt;'"&amp;Prds!C27&amp;"','org_price'=&gt;"&amp;Prds!D27&amp;",'dct_price'=&gt;"&amp;Prds!F27&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A27&amp;",'name'=&gt;'"&amp;Prds!B27&amp;"','slug'=&gt;'"&amp;Prds!C27&amp;"','org_price'=&gt;"&amp;Prds!E27&amp;",'dct_price'=&gt;"&amp;Prds!G27&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0001','slug'=&gt;'pijama-para-madre-he-hija-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A28&amp;",'name'=&gt;'"&amp;Prds!B28&amp;"','slug'=&gt;'"&amp;Prds!C28&amp;"','org_price'=&gt;"&amp;Prds!D28&amp;",'dct_price'=&gt;"&amp;Prds!F28&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A28&amp;",'name'=&gt;'"&amp;Prds!B28&amp;"','slug'=&gt;'"&amp;Prds!C28&amp;"','org_price'=&gt;"&amp;Prds!E28&amp;",'dct_price'=&gt;"&amp;Prds!G28&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;26,'name'=&gt;'Pijama para Madre he hija Ref. 0002','slug'=&gt;'pijama-para-madre-he-hija-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A29&amp;",'name'=&gt;'"&amp;Prds!B29&amp;"','slug'=&gt;'"&amp;Prds!C29&amp;"','org_price'=&gt;"&amp;Prds!D29&amp;",'dct_price'=&gt;"&amp;Prds!F29&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A29&amp;",'name'=&gt;'"&amp;Prds!B29&amp;"','slug'=&gt;'"&amp;Prds!C29&amp;"','org_price'=&gt;"&amp;Prds!E29&amp;",'dct_price'=&gt;"&amp;Prds!G29&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;27,'name'=&gt;'Pijama para Madre he hija Ref. 0003','slug'=&gt;'pijama-para-madre-he-hija-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A30&amp;",'name'=&gt;'"&amp;Prds!B30&amp;"','slug'=&gt;'"&amp;Prds!C30&amp;"','org_price'=&gt;"&amp;Prds!D30&amp;",'dct_price'=&gt;"&amp;Prds!F30&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A30&amp;",'name'=&gt;'"&amp;Prds!B30&amp;"','slug'=&gt;'"&amp;Prds!C30&amp;"','org_price'=&gt;"&amp;Prds!E30&amp;",'dct_price'=&gt;"&amp;Prds!G30&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;28,'name'=&gt;'Pijama para Madre he hija Ref. 0004','slug'=&gt;'pijama-para-madre-he-hija-ref.-0004','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A31&amp;",'name'=&gt;'"&amp;Prds!B31&amp;"','slug'=&gt;'"&amp;Prds!C31&amp;"','org_price'=&gt;"&amp;Prds!D31&amp;",'dct_price'=&gt;"&amp;Prds!F31&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A31&amp;",'name'=&gt;'"&amp;Prds!B31&amp;"','slug'=&gt;'"&amp;Prds!C31&amp;"','org_price'=&gt;"&amp;Prds!E31&amp;",'dct_price'=&gt;"&amp;Prds!G31&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;29,'name'=&gt;'Pijama para Madre he hija Ref. 0005','slug'=&gt;'pijama-para-madre-he-hija-ref.-0005','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A32&amp;",'name'=&gt;'"&amp;Prds!B32&amp;"','slug'=&gt;'"&amp;Prds!C32&amp;"','org_price'=&gt;"&amp;Prds!D32&amp;",'dct_price'=&gt;"&amp;Prds!F32&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A32&amp;",'name'=&gt;'"&amp;Prds!B32&amp;"','slug'=&gt;'"&amp;Prds!C32&amp;"','org_price'=&gt;"&amp;Prds!E32&amp;",'dct_price'=&gt;"&amp;Prds!G32&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;30,'name'=&gt;'Chaqueta Ref.0001','slug'=&gt;'chaqueta-ref.0001','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A33&amp;",'name'=&gt;'"&amp;Prds!B33&amp;"','slug'=&gt;'"&amp;Prds!C33&amp;"','org_price'=&gt;"&amp;Prds!D33&amp;",'dct_price'=&gt;"&amp;Prds!F33&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A33&amp;",'name'=&gt;'"&amp;Prds!B33&amp;"','slug'=&gt;'"&amp;Prds!C33&amp;"','org_price'=&gt;"&amp;Prds!E33&amp;",'dct_price'=&gt;"&amp;Prds!G33&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;31,'name'=&gt;'Chaqueta Ref.0002','slug'=&gt;'chaqueta-ref.0002','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A34&amp;",'name'=&gt;'"&amp;Prds!B34&amp;"','slug'=&gt;'"&amp;Prds!C34&amp;"','org_price'=&gt;"&amp;Prds!D34&amp;",'dct_price'=&gt;"&amp;Prds!F34&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A34&amp;",'name'=&gt;'"&amp;Prds!B34&amp;"','slug'=&gt;'"&amp;Prds!C34&amp;"','org_price'=&gt;"&amp;Prds!E34&amp;",'dct_price'=&gt;"&amp;Prds!G34&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;32,'name'=&gt;'Chaqueta Ref.0003','slug'=&gt;'chaqueta-ref.0003','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A35&amp;",'name'=&gt;'"&amp;Prds!B35&amp;"','slug'=&gt;'"&amp;Prds!C35&amp;"','org_price'=&gt;"&amp;Prds!D35&amp;",'dct_price'=&gt;"&amp;Prds!F35&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A35&amp;",'name'=&gt;'"&amp;Prds!B35&amp;"','slug'=&gt;'"&amp;Prds!C35&amp;"','org_price'=&gt;"&amp;Prds!E35&amp;",'dct_price'=&gt;"&amp;Prds!G35&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;33,'name'=&gt;'Pijama de Animalitos Ref. 0001','slug'=&gt;'pijama-de-animalitos-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A36&amp;",'name'=&gt;'"&amp;Prds!B36&amp;"','slug'=&gt;'"&amp;Prds!C36&amp;"','org_price'=&gt;"&amp;Prds!D36&amp;",'dct_price'=&gt;"&amp;Prds!F36&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A36&amp;",'name'=&gt;'"&amp;Prds!B36&amp;"','slug'=&gt;'"&amp;Prds!C36&amp;"','org_price'=&gt;"&amp;Prds!E36&amp;",'dct_price'=&gt;"&amp;Prds!G36&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;34,'name'=&gt;'Pijama de Animalitos Ref. 0002','slug'=&gt;'pijama-de-animalitos-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A37&amp;",'name'=&gt;'"&amp;Prds!B37&amp;"','slug'=&gt;'"&amp;Prds!C37&amp;"','org_price'=&gt;"&amp;Prds!D37&amp;",'dct_price'=&gt;"&amp;Prds!F37&amp;",'qty'=&gt;100],"</f>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A37&amp;",'name'=&gt;'"&amp;Prds!B37&amp;"','slug'=&gt;'"&amp;Prds!C37&amp;"','org_price'=&gt;"&amp;Prds!E37&amp;",'dct_price'=&gt;"&amp;Prds!G37&amp;",'qty'=&gt;100],"</f>
         <v>['id'=&gt;35,'name'=&gt;'Pijama de Animalitos Ref. 0003','slug'=&gt;'pijama-de-animalitos-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
@@ -2300,7 +2372,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A35"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2370,8 +2442,8 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A1:A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/PanditasProducts.xlsx
+++ b/docs/PanditasProducts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prds" sheetId="1" state="visible" r:id="rId2"/>
@@ -327,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="A1:A35 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="A1:A35 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="A1:A35 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1988,8 +1988,8 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1997,214 +1997,214 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A3&amp;",'name'=&gt;'"&amp;Prds!B3&amp;"','slug'=&gt;'"&amp;Prds!C3&amp;"','org_price'=&gt;"&amp;Prds!E3&amp;",'dct_price'=&gt;"&amp;Prds!G3&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0001','slug'=&gt;'pijama-enterisa-ref.-0001','org_price'=&gt;27900,'dct_price'=&gt;25000,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A3&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D3),"NULL",Prds!D3) &amp;",'name'=&gt;'"&amp;Prds!B3&amp;"','slug'=&gt;'"&amp;Prds!C3&amp;"','org_price'=&gt;"&amp;Prds!E3&amp;",'dct_price'=&gt;"&amp;Prds!G3&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;1,'parent_id'=&gt;NULL,'name'=&gt;'Pijama Enterisa Ref. 0001','slug'=&gt;'pijama-enterisa-ref.-0001','org_price'=&gt;27900,'dct_price'=&gt;25000,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A4&amp;",'name'=&gt;'"&amp;Prds!B4&amp;"','slug'=&gt;'"&amp;Prds!C4&amp;"','org_price'=&gt;"&amp;Prds!E4&amp;",'dct_price'=&gt;"&amp;Prds!G4&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;2,'name'=&gt;'Pijama Enterisa Ref. 0002','slug'=&gt;'pijama-enterisa-ref.-0002','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A4&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D4),"NULL",Prds!D4) &amp;",'name'=&gt;'"&amp;Prds!B4&amp;"','slug'=&gt;'"&amp;Prds!C4&amp;"','org_price'=&gt;"&amp;Prds!E4&amp;",'dct_price'=&gt;"&amp;Prds!G4&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;2,'parent_id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0002','slug'=&gt;'pijama-enterisa-ref.-0002','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A5&amp;",'name'=&gt;'"&amp;Prds!B5&amp;"','slug'=&gt;'"&amp;Prds!C5&amp;"','org_price'=&gt;"&amp;Prds!E5&amp;",'dct_price'=&gt;"&amp;Prds!G5&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;3,'name'=&gt;'Pijama Enterisa Ref. 0003','slug'=&gt;'pijama-enterisa-ref.-0003','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A5&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D5),"NULL",Prds!D5) &amp;",'name'=&gt;'"&amp;Prds!B5&amp;"','slug'=&gt;'"&amp;Prds!C5&amp;"','org_price'=&gt;"&amp;Prds!E5&amp;",'dct_price'=&gt;"&amp;Prds!G5&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;3,'parent_id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0003','slug'=&gt;'pijama-enterisa-ref.-0003','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A6&amp;",'name'=&gt;'"&amp;Prds!B6&amp;"','slug'=&gt;'"&amp;Prds!C6&amp;"','org_price'=&gt;"&amp;Prds!E6&amp;",'dct_price'=&gt;"&amp;Prds!G6&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;4,'name'=&gt;'Pijama Enterisa Ref. 0004','slug'=&gt;'pijama-enterisa-ref.-0004','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A6&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D6),"NULL",Prds!D6) &amp;",'name'=&gt;'"&amp;Prds!B6&amp;"','slug'=&gt;'"&amp;Prds!C6&amp;"','org_price'=&gt;"&amp;Prds!E6&amp;",'dct_price'=&gt;"&amp;Prds!G6&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;4,'parent_id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0004','slug'=&gt;'pijama-enterisa-ref.-0004','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A7&amp;",'name'=&gt;'"&amp;Prds!B7&amp;"','slug'=&gt;'"&amp;Prds!C7&amp;"','org_price'=&gt;"&amp;Prds!E7&amp;",'dct_price'=&gt;"&amp;Prds!G7&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;5,'name'=&gt;'Pijama Enterisa Ref. 0005','slug'=&gt;'pijama-enterisa-ref.-0005','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A7&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D7),"NULL",Prds!D7) &amp;",'name'=&gt;'"&amp;Prds!B7&amp;"','slug'=&gt;'"&amp;Prds!C7&amp;"','org_price'=&gt;"&amp;Prds!E7&amp;",'dct_price'=&gt;"&amp;Prds!G7&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;5,'parent_id'=&gt;1,'name'=&gt;'Pijama Enterisa Ref. 0005','slug'=&gt;'pijama-enterisa-ref.-0005','org_price'=&gt;27900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A8&amp;",'name'=&gt;'"&amp;Prds!B8&amp;"','slug'=&gt;'"&amp;Prds!C8&amp;"','org_price'=&gt;"&amp;Prds!E8&amp;",'dct_price'=&gt;"&amp;Prds!G8&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0001','slug'=&gt;'pijama-dos-piezas-ref.-0001','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A8&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D8),"NULL",Prds!D8) &amp;",'name'=&gt;'"&amp;Prds!B8&amp;"','slug'=&gt;'"&amp;Prds!C8&amp;"','org_price'=&gt;"&amp;Prds!E8&amp;",'dct_price'=&gt;"&amp;Prds!G8&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;6,'parent_id'=&gt;NULL,'name'=&gt;'Pijama dos piezas Ref. 0001','slug'=&gt;'pijama-dos-piezas-ref.-0001','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A9&amp;",'name'=&gt;'"&amp;Prds!B9&amp;"','slug'=&gt;'"&amp;Prds!C9&amp;"','org_price'=&gt;"&amp;Prds!E9&amp;",'dct_price'=&gt;"&amp;Prds!G9&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;7,'name'=&gt;'Pijama dos piezas Ref. 0002','slug'=&gt;'pijama-dos-piezas-ref.-0002','org_price'=&gt;23900,'dct_price'=&gt;20000,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A9&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D9),"NULL",Prds!D9) &amp;",'name'=&gt;'"&amp;Prds!B9&amp;"','slug'=&gt;'"&amp;Prds!C9&amp;"','org_price'=&gt;"&amp;Prds!E9&amp;",'dct_price'=&gt;"&amp;Prds!G9&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;7,'parent_id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0002','slug'=&gt;'pijama-dos-piezas-ref.-0002','org_price'=&gt;23900,'dct_price'=&gt;20000,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A10&amp;",'name'=&gt;'"&amp;Prds!B10&amp;"','slug'=&gt;'"&amp;Prds!C10&amp;"','org_price'=&gt;"&amp;Prds!E10&amp;",'dct_price'=&gt;"&amp;Prds!G10&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;8,'name'=&gt;'Pijama dos piezas Ref. 0003','slug'=&gt;'pijama-dos-piezas-ref.-0003','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A10&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D10),"NULL",Prds!D10) &amp;",'name'=&gt;'"&amp;Prds!B10&amp;"','slug'=&gt;'"&amp;Prds!C10&amp;"','org_price'=&gt;"&amp;Prds!E10&amp;",'dct_price'=&gt;"&amp;Prds!G10&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;8,'parent_id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0003','slug'=&gt;'pijama-dos-piezas-ref.-0003','org_price'=&gt;23900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A11&amp;",'name'=&gt;'"&amp;Prds!B11&amp;"','slug'=&gt;'"&amp;Prds!C11&amp;"','org_price'=&gt;"&amp;Prds!E11&amp;",'dct_price'=&gt;"&amp;Prds!G11&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;9,'name'=&gt;'Pijama dos piezas Ref. 0004','slug'=&gt;'pijama-dos-piezas-ref.-0004','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A11&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D11),"NULL",Prds!D11) &amp;",'name'=&gt;'"&amp;Prds!B11&amp;"','slug'=&gt;'"&amp;Prds!C11&amp;"','org_price'=&gt;"&amp;Prds!E11&amp;",'dct_price'=&gt;"&amp;Prds!G11&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;9,'parent_id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0004','slug'=&gt;'pijama-dos-piezas-ref.-0004','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A12&amp;",'name'=&gt;'"&amp;Prds!B12&amp;"','slug'=&gt;'"&amp;Prds!C12&amp;"','org_price'=&gt;"&amp;Prds!E12&amp;",'dct_price'=&gt;"&amp;Prds!G12&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;10,'name'=&gt;'Pijama dos piezas Ref. 0005','slug'=&gt;'pijama-dos-piezas-ref.-0005','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A12&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D12),"NULL",Prds!D12) &amp;",'name'=&gt;'"&amp;Prds!B12&amp;"','slug'=&gt;'"&amp;Prds!C12&amp;"','org_price'=&gt;"&amp;Prds!E12&amp;",'dct_price'=&gt;"&amp;Prds!G12&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;10,'parent_id'=&gt;6,'name'=&gt;'Pijama dos piezas Ref. 0005','slug'=&gt;'pijama-dos-piezas-ref.-0005','org_price'=&gt;23900,'dct_price'=&gt;18500,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A13&amp;",'name'=&gt;'"&amp;Prds!B13&amp;"','slug'=&gt;'"&amp;Prds!C13&amp;"','org_price'=&gt;"&amp;Prds!E13&amp;",'dct_price'=&gt;"&amp;Prds!G13&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0001','slug'=&gt;'ruana-de-animales-ref.-0001','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A13&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D13),"NULL",Prds!D13) &amp;",'name'=&gt;'"&amp;Prds!B13&amp;"','slug'=&gt;'"&amp;Prds!C13&amp;"','org_price'=&gt;"&amp;Prds!E13&amp;",'dct_price'=&gt;"&amp;Prds!G13&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;11,'parent_id'=&gt;NULL,'name'=&gt;'Ruana de animales Ref. 0001','slug'=&gt;'ruana-de-animales-ref.-0001','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A14&amp;",'name'=&gt;'"&amp;Prds!B14&amp;"','slug'=&gt;'"&amp;Prds!C14&amp;"','org_price'=&gt;"&amp;Prds!E14&amp;",'dct_price'=&gt;"&amp;Prds!G14&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;12,'name'=&gt;'Ruana de animales Ref. 0002','slug'=&gt;'ruana-de-animales-ref.-0002','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A14&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D14),"NULL",Prds!D14) &amp;",'name'=&gt;'"&amp;Prds!B14&amp;"','slug'=&gt;'"&amp;Prds!C14&amp;"','org_price'=&gt;"&amp;Prds!E14&amp;",'dct_price'=&gt;"&amp;Prds!G14&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;12,'parent_id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0002','slug'=&gt;'ruana-de-animales-ref.-0002','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A15&amp;",'name'=&gt;'"&amp;Prds!B15&amp;"','slug'=&gt;'"&amp;Prds!C15&amp;"','org_price'=&gt;"&amp;Prds!E15&amp;",'dct_price'=&gt;"&amp;Prds!G15&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;13,'name'=&gt;'Ruana de animales Ref. 0003','slug'=&gt;'ruana-de-animales-ref.-0003','org_price'=&gt;47900,'dct_price'=&gt;42900,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A15&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D15),"NULL",Prds!D15) &amp;",'name'=&gt;'"&amp;Prds!B15&amp;"','slug'=&gt;'"&amp;Prds!C15&amp;"','org_price'=&gt;"&amp;Prds!E15&amp;",'dct_price'=&gt;"&amp;Prds!G15&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;13,'parent_id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0003','slug'=&gt;'ruana-de-animales-ref.-0003','org_price'=&gt;47900,'dct_price'=&gt;42900,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A16&amp;",'name'=&gt;'"&amp;Prds!B16&amp;"','slug'=&gt;'"&amp;Prds!C16&amp;"','org_price'=&gt;"&amp;Prds!E16&amp;",'dct_price'=&gt;"&amp;Prds!G16&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;14,'name'=&gt;'Ruana de animales Ref. 0004','slug'=&gt;'ruana-de-animales-ref.-0004','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A16&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D16),"NULL",Prds!D16) &amp;",'name'=&gt;'"&amp;Prds!B16&amp;"','slug'=&gt;'"&amp;Prds!C16&amp;"','org_price'=&gt;"&amp;Prds!E16&amp;",'dct_price'=&gt;"&amp;Prds!G16&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;14,'parent_id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0004','slug'=&gt;'ruana-de-animales-ref.-0004','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A17&amp;",'name'=&gt;'"&amp;Prds!B17&amp;"','slug'=&gt;'"&amp;Prds!C17&amp;"','org_price'=&gt;"&amp;Prds!E17&amp;",'dct_price'=&gt;"&amp;Prds!G17&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;15,'name'=&gt;'Ruana de animales Ref. 0005','slug'=&gt;'ruana-de-animales-ref.-0005','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A17&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D17),"NULL",Prds!D17) &amp;",'name'=&gt;'"&amp;Prds!B17&amp;"','slug'=&gt;'"&amp;Prds!C17&amp;"','org_price'=&gt;"&amp;Prds!E17&amp;",'dct_price'=&gt;"&amp;Prds!G17&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;15,'parent_id'=&gt;11,'name'=&gt;'Ruana de animales Ref. 0005','slug'=&gt;'ruana-de-animales-ref.-0005','org_price'=&gt;47900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A18&amp;",'name'=&gt;'"&amp;Prds!B18&amp;"','slug'=&gt;'"&amp;Prds!C18&amp;"','org_price'=&gt;"&amp;Prds!E18&amp;",'dct_price'=&gt;"&amp;Prds!G18&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0001','slug'=&gt;'ruana-de-orejitas-ref.0001','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A18&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D18),"NULL",Prds!D18) &amp;",'name'=&gt;'"&amp;Prds!B18&amp;"','slug'=&gt;'"&amp;Prds!C18&amp;"','org_price'=&gt;"&amp;Prds!E18&amp;",'dct_price'=&gt;"&amp;Prds!G18&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;16,'parent_id'=&gt;NULL,'name'=&gt;'Ruana de Orejitas Ref.0001','slug'=&gt;'ruana-de-orejitas-ref.0001','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A19&amp;",'name'=&gt;'"&amp;Prds!B19&amp;"','slug'=&gt;'"&amp;Prds!C19&amp;"','org_price'=&gt;"&amp;Prds!E19&amp;",'dct_price'=&gt;"&amp;Prds!G19&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;17,'name'=&gt;'Ruana de Orejitas Ref.0002','slug'=&gt;'ruana-de-orejitas-ref.0002','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A19&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D19),"NULL",Prds!D19) &amp;",'name'=&gt;'"&amp;Prds!B19&amp;"','slug'=&gt;'"&amp;Prds!C19&amp;"','org_price'=&gt;"&amp;Prds!E19&amp;",'dct_price'=&gt;"&amp;Prds!G19&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;17,'parent_id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0002','slug'=&gt;'ruana-de-orejitas-ref.0002','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A20&amp;",'name'=&gt;'"&amp;Prds!B20&amp;"','slug'=&gt;'"&amp;Prds!C20&amp;"','org_price'=&gt;"&amp;Prds!E20&amp;",'dct_price'=&gt;"&amp;Prds!G20&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;18,'name'=&gt;'Ruana de Orejitas Ref.0003','slug'=&gt;'ruana-de-orejitas-ref.0003','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A20&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D20),"NULL",Prds!D20) &amp;",'name'=&gt;'"&amp;Prds!B20&amp;"','slug'=&gt;'"&amp;Prds!C20&amp;"','org_price'=&gt;"&amp;Prds!E20&amp;",'dct_price'=&gt;"&amp;Prds!G20&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;18,'parent_id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0003','slug'=&gt;'ruana-de-orejitas-ref.0003','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A21&amp;",'name'=&gt;'"&amp;Prds!B21&amp;"','slug'=&gt;'"&amp;Prds!C21&amp;"','org_price'=&gt;"&amp;Prds!E21&amp;",'dct_price'=&gt;"&amp;Prds!G21&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;19,'name'=&gt;'Ruana de Orejitas Ref.0004','slug'=&gt;'ruana-de-orejitas-ref.0004','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A21&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D21),"NULL",Prds!D21) &amp;",'name'=&gt;'"&amp;Prds!B21&amp;"','slug'=&gt;'"&amp;Prds!C21&amp;"','org_price'=&gt;"&amp;Prds!E21&amp;",'dct_price'=&gt;"&amp;Prds!G21&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;19,'parent_id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0004','slug'=&gt;'ruana-de-orejitas-ref.0004','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A22&amp;",'name'=&gt;'"&amp;Prds!B22&amp;"','slug'=&gt;'"&amp;Prds!C22&amp;"','org_price'=&gt;"&amp;Prds!E22&amp;",'dct_price'=&gt;"&amp;Prds!G22&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;20,'name'=&gt;'Ruana de Orejitas Ref.0005','slug'=&gt;'ruana-de-orejitas-ref.0005','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A22&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D22),"NULL",Prds!D22) &amp;",'name'=&gt;'"&amp;Prds!B22&amp;"','slug'=&gt;'"&amp;Prds!C22&amp;"','org_price'=&gt;"&amp;Prds!E22&amp;",'dct_price'=&gt;"&amp;Prds!G22&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;20,'parent_id'=&gt;16,'name'=&gt;'Ruana de Orejitas Ref.0005','slug'=&gt;'ruana-de-orejitas-ref.0005','org_price'=&gt;29900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A23&amp;",'name'=&gt;'"&amp;Prds!B23&amp;"','slug'=&gt;'"&amp;Prds!C23&amp;"','org_price'=&gt;"&amp;Prds!E23&amp;",'dct_price'=&gt;"&amp;Prds!G23&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;21,'name'=&gt;'Combo materno niño','slug'=&gt;'combo-materno-niño','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A23&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D23),"NULL",Prds!D23) &amp;",'name'=&gt;'"&amp;Prds!B23&amp;"','slug'=&gt;'"&amp;Prds!C23&amp;"','org_price'=&gt;"&amp;Prds!E23&amp;",'dct_price'=&gt;"&amp;Prds!G23&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;21,'parent_id'=&gt;NULL,'name'=&gt;'Combo materno niño','slug'=&gt;'combo-materno-niño','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A24&amp;",'name'=&gt;'"&amp;Prds!B24&amp;"','slug'=&gt;'"&amp;Prds!C24&amp;"','org_price'=&gt;"&amp;Prds!E24&amp;",'dct_price'=&gt;"&amp;Prds!G24&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;22,'name'=&gt;'Combo materno niña','slug'=&gt;'combo-materno-niña','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A24&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D24),"NULL",Prds!D24) &amp;",'name'=&gt;'"&amp;Prds!B24&amp;"','slug'=&gt;'"&amp;Prds!C24&amp;"','org_price'=&gt;"&amp;Prds!E24&amp;",'dct_price'=&gt;"&amp;Prds!G24&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;22,'parent_id'=&gt;NULL,'name'=&gt;'Combo materno niña','slug'=&gt;'combo-materno-niña','org_price'=&gt;69900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A25&amp;",'name'=&gt;'"&amp;Prds!B25&amp;"','slug'=&gt;'"&amp;Prds!C25&amp;"','org_price'=&gt;"&amp;Prds!E25&amp;",'dct_price'=&gt;"&amp;Prds!G25&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;23,'name'=&gt;'Gorro niño','slug'=&gt;'gorro-niño','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A25&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D25),"NULL",Prds!D25) &amp;",'name'=&gt;'"&amp;Prds!B25&amp;"','slug'=&gt;'"&amp;Prds!C25&amp;"','org_price'=&gt;"&amp;Prds!E25&amp;",'dct_price'=&gt;"&amp;Prds!G25&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;23,'parent_id'=&gt;NULL,'name'=&gt;'Gorro niño','slug'=&gt;'gorro-niño','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A26&amp;",'name'=&gt;'"&amp;Prds!B26&amp;"','slug'=&gt;'"&amp;Prds!C26&amp;"','org_price'=&gt;"&amp;Prds!E26&amp;",'dct_price'=&gt;"&amp;Prds!G26&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;24,'name'=&gt;'Gorro niña','slug'=&gt;'gorro-niña','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A26&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D26),"NULL",Prds!D26) &amp;",'name'=&gt;'"&amp;Prds!B26&amp;"','slug'=&gt;'"&amp;Prds!C26&amp;"','org_price'=&gt;"&amp;Prds!E26&amp;",'dct_price'=&gt;"&amp;Prds!G26&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;24,'parent_id'=&gt;NULL,'name'=&gt;'Gorro niña','slug'=&gt;'gorro-niña','org_price'=&gt;7900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A27&amp;",'name'=&gt;'"&amp;Prds!B27&amp;"','slug'=&gt;'"&amp;Prds!C27&amp;"','org_price'=&gt;"&amp;Prds!E27&amp;",'dct_price'=&gt;"&amp;Prds!G27&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0001','slug'=&gt;'pijama-para-madre-he-hija-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A27&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D27),"NULL",Prds!D27) &amp;",'name'=&gt;'"&amp;Prds!B27&amp;"','slug'=&gt;'"&amp;Prds!C27&amp;"','org_price'=&gt;"&amp;Prds!E27&amp;",'dct_price'=&gt;"&amp;Prds!G27&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;25,'parent_id'=&gt;NULL,'name'=&gt;'Pijama para Madre he hija Ref. 0001','slug'=&gt;'pijama-para-madre-he-hija-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A28&amp;",'name'=&gt;'"&amp;Prds!B28&amp;"','slug'=&gt;'"&amp;Prds!C28&amp;"','org_price'=&gt;"&amp;Prds!E28&amp;",'dct_price'=&gt;"&amp;Prds!G28&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;26,'name'=&gt;'Pijama para Madre he hija Ref. 0002','slug'=&gt;'pijama-para-madre-he-hija-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A28&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D28),"NULL",Prds!D28) &amp;",'name'=&gt;'"&amp;Prds!B28&amp;"','slug'=&gt;'"&amp;Prds!C28&amp;"','org_price'=&gt;"&amp;Prds!E28&amp;",'dct_price'=&gt;"&amp;Prds!G28&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;26,'parent_id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0002','slug'=&gt;'pijama-para-madre-he-hija-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A29&amp;",'name'=&gt;'"&amp;Prds!B29&amp;"','slug'=&gt;'"&amp;Prds!C29&amp;"','org_price'=&gt;"&amp;Prds!E29&amp;",'dct_price'=&gt;"&amp;Prds!G29&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;27,'name'=&gt;'Pijama para Madre he hija Ref. 0003','slug'=&gt;'pijama-para-madre-he-hija-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A29&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D29),"NULL",Prds!D29) &amp;",'name'=&gt;'"&amp;Prds!B29&amp;"','slug'=&gt;'"&amp;Prds!C29&amp;"','org_price'=&gt;"&amp;Prds!E29&amp;",'dct_price'=&gt;"&amp;Prds!G29&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;27,'parent_id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0003','slug'=&gt;'pijama-para-madre-he-hija-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A30&amp;",'name'=&gt;'"&amp;Prds!B30&amp;"','slug'=&gt;'"&amp;Prds!C30&amp;"','org_price'=&gt;"&amp;Prds!E30&amp;",'dct_price'=&gt;"&amp;Prds!G30&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;28,'name'=&gt;'Pijama para Madre he hija Ref. 0004','slug'=&gt;'pijama-para-madre-he-hija-ref.-0004','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A30&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D30),"NULL",Prds!D30) &amp;",'name'=&gt;'"&amp;Prds!B30&amp;"','slug'=&gt;'"&amp;Prds!C30&amp;"','org_price'=&gt;"&amp;Prds!E30&amp;",'dct_price'=&gt;"&amp;Prds!G30&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;28,'parent_id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0004','slug'=&gt;'pijama-para-madre-he-hija-ref.-0004','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A31&amp;",'name'=&gt;'"&amp;Prds!B31&amp;"','slug'=&gt;'"&amp;Prds!C31&amp;"','org_price'=&gt;"&amp;Prds!E31&amp;",'dct_price'=&gt;"&amp;Prds!G31&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;29,'name'=&gt;'Pijama para Madre he hija Ref. 0005','slug'=&gt;'pijama-para-madre-he-hija-ref.-0005','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A31&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D31),"NULL",Prds!D31) &amp;",'name'=&gt;'"&amp;Prds!B31&amp;"','slug'=&gt;'"&amp;Prds!C31&amp;"','org_price'=&gt;"&amp;Prds!E31&amp;",'dct_price'=&gt;"&amp;Prds!G31&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;29,'parent_id'=&gt;25,'name'=&gt;'Pijama para Madre he hija Ref. 0005','slug'=&gt;'pijama-para-madre-he-hija-ref.-0005','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A32&amp;",'name'=&gt;'"&amp;Prds!B32&amp;"','slug'=&gt;'"&amp;Prds!C32&amp;"','org_price'=&gt;"&amp;Prds!E32&amp;",'dct_price'=&gt;"&amp;Prds!G32&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;30,'name'=&gt;'Chaqueta Ref.0001','slug'=&gt;'chaqueta-ref.0001','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A32&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D32),"NULL",Prds!D32) &amp;",'name'=&gt;'"&amp;Prds!B32&amp;"','slug'=&gt;'"&amp;Prds!C32&amp;"','org_price'=&gt;"&amp;Prds!E32&amp;",'dct_price'=&gt;"&amp;Prds!G32&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;30,'parent_id'=&gt;NULL,'name'=&gt;'Chaqueta Ref.0001','slug'=&gt;'chaqueta-ref.0001','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A33&amp;",'name'=&gt;'"&amp;Prds!B33&amp;"','slug'=&gt;'"&amp;Prds!C33&amp;"','org_price'=&gt;"&amp;Prds!E33&amp;",'dct_price'=&gt;"&amp;Prds!G33&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;31,'name'=&gt;'Chaqueta Ref.0002','slug'=&gt;'chaqueta-ref.0002','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A33&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D33),"NULL",Prds!D33) &amp;",'name'=&gt;'"&amp;Prds!B33&amp;"','slug'=&gt;'"&amp;Prds!C33&amp;"','org_price'=&gt;"&amp;Prds!E33&amp;",'dct_price'=&gt;"&amp;Prds!G33&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;31,'parent_id'=&gt;31,'name'=&gt;'Chaqueta Ref.0002','slug'=&gt;'chaqueta-ref.0002','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A34&amp;",'name'=&gt;'"&amp;Prds!B34&amp;"','slug'=&gt;'"&amp;Prds!C34&amp;"','org_price'=&gt;"&amp;Prds!E34&amp;",'dct_price'=&gt;"&amp;Prds!G34&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;32,'name'=&gt;'Chaqueta Ref.0003','slug'=&gt;'chaqueta-ref.0003','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A34&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D34),"NULL",Prds!D34) &amp;",'name'=&gt;'"&amp;Prds!B34&amp;"','slug'=&gt;'"&amp;Prds!C34&amp;"','org_price'=&gt;"&amp;Prds!E34&amp;",'dct_price'=&gt;"&amp;Prds!G34&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;32,'parent_id'=&gt;31,'name'=&gt;'Chaqueta Ref.0003','slug'=&gt;'chaqueta-ref.0003','org_price'=&gt;44900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A35&amp;",'name'=&gt;'"&amp;Prds!B35&amp;"','slug'=&gt;'"&amp;Prds!C35&amp;"','org_price'=&gt;"&amp;Prds!E35&amp;",'dct_price'=&gt;"&amp;Prds!G35&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;33,'name'=&gt;'Pijama de Animalitos Ref. 0001','slug'=&gt;'pijama-de-animalitos-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A35&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D35),"NULL",Prds!D35) &amp;",'name'=&gt;'"&amp;Prds!B35&amp;"','slug'=&gt;'"&amp;Prds!C35&amp;"','org_price'=&gt;"&amp;Prds!E35&amp;",'dct_price'=&gt;"&amp;Prds!G35&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;33,'parent_id'=&gt;NULL,'name'=&gt;'Pijama de Animalitos Ref. 0001','slug'=&gt;'pijama-de-animalitos-ref.-0001','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A36&amp;",'name'=&gt;'"&amp;Prds!B36&amp;"','slug'=&gt;'"&amp;Prds!C36&amp;"','org_price'=&gt;"&amp;Prds!E36&amp;",'dct_price'=&gt;"&amp;Prds!G36&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;34,'name'=&gt;'Pijama de Animalitos Ref. 0002','slug'=&gt;'pijama-de-animalitos-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">"['id'=&gt;"&amp;Prds!A36&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D36),"NULL",Prds!D36) &amp;",'name'=&gt;'"&amp;Prds!B36&amp;"','slug'=&gt;'"&amp;Prds!C36&amp;"','org_price'=&gt;"&amp;Prds!E36&amp;",'dct_price'=&gt;"&amp;Prds!G36&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;34,'parent_id'=&gt;34,'name'=&gt;'Pijama de Animalitos Ref. 0002','slug'=&gt;'pijama-de-animalitos-ref.-0002','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
-        <f aca="false">"['id'=&gt;"&amp;Prds!A37&amp;",'name'=&gt;'"&amp;Prds!B37&amp;"','slug'=&gt;'"&amp;Prds!C37&amp;"','org_price'=&gt;"&amp;Prds!E37&amp;",'dct_price'=&gt;"&amp;Prds!G37&amp;",'qty'=&gt;100],"</f>
-        <v>['id'=&gt;35,'name'=&gt;'Pijama de Animalitos Ref. 0003','slug'=&gt;'pijama-de-animalitos-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+        <f aca="false">"['id'=&gt;"&amp;Prds!A37&amp;",'parent_id'=&gt;"&amp; IF(ISBLANK(Prds!D37),"NULL",Prds!D37) &amp;",'name'=&gt;'"&amp;Prds!B37&amp;"','slug'=&gt;'"&amp;Prds!C37&amp;"','org_price'=&gt;"&amp;Prds!E37&amp;",'dct_price'=&gt;"&amp;Prds!G37&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;35,'parent_id'=&gt;34,'name'=&gt;'Pijama de Animalitos Ref. 0003','slug'=&gt;'pijama-de-animalitos-ref.-0003','org_price'=&gt;49900,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
       </c>
     </row>
     <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2372,7 +2372,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,7 +2443,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
